--- a/DATA/Student Records/BSIT 2B.xlsx
+++ b/DATA/Student Records/BSIT 2B.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BoXsBabe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Grading-Management-System\DATA\Student Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB3D6D-0F38-42BB-BCF4-AFAFE237F89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Student Data Format" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
   <si>
     <t>Student No</t>
   </si>
@@ -134,9 +133,6 @@
     <t>jasper.lopez.c@bulsu.edu.ph</t>
   </si>
   <si>
-    <t>joven.vichozo.x@bulsu.edu.ph</t>
-  </si>
-  <si>
     <t>rilly.lovedorial.d@bulsu.edu.ph</t>
   </si>
   <si>
@@ -227,9 +223,6 @@
     <t>+63-932-555-1865</t>
   </si>
   <si>
-    <t>+63-928-555-9792</t>
-  </si>
-  <si>
     <t>+63-923-555-2664</t>
   </si>
   <si>
@@ -282,9 +275,6 @@
   </si>
   <si>
     <t>Manalo,Gio</t>
-  </si>
-  <si>
-    <t>Vichozo,Joven,</t>
   </si>
   <si>
     <t>Trabajales,Kathlene</t>
@@ -383,7 +373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,7 +512,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -818,11 +838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +892,7 @@
         <v>2021114950</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>10</v>
@@ -881,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>9</v>
@@ -890,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>13</v>
@@ -901,7 +921,7 @@
         <v>2021117631</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>10</v>
@@ -910,7 +930,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>9</v>
@@ -919,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>13</v>
@@ -930,7 +950,7 @@
         <v>2021114912</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>11</v>
@@ -939,7 +959,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>9</v>
@@ -948,7 +968,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>13</v>
@@ -959,7 +979,7 @@
         <v>2021101894</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>11</v>
@@ -968,7 +988,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>9</v>
@@ -977,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>13</v>
@@ -988,7 +1008,7 @@
         <v>2021117177</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
@@ -997,7 +1017,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>9</v>
@@ -1006,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>13</v>
@@ -1017,7 +1037,7 @@
         <v>2021115552</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
@@ -1026,7 +1046,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>9</v>
@@ -1035,7 +1055,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>13</v>
@@ -1046,7 +1066,7 @@
         <v>2021115084</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
@@ -1055,7 +1075,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>9</v>
@@ -1064,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>13</v>
@@ -1075,7 +1095,7 @@
         <v>2021115275</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
@@ -1084,7 +1104,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>9</v>
@@ -1093,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>13</v>
@@ -1104,7 +1124,7 @@
         <v>2021117763</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>10</v>
@@ -1113,7 +1133,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>9</v>
@@ -1122,7 +1142,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>13</v>
@@ -1133,7 +1153,7 @@
         <v>2021115153</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>10</v>
@@ -1142,7 +1162,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>9</v>
@@ -1151,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>13</v>
@@ -1162,7 +1182,7 @@
         <v>2021115281</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>10</v>
@@ -1171,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>9</v>
@@ -1180,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>13</v>
@@ -1191,7 +1211,7 @@
         <v>2021117287</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>11</v>
@@ -1200,7 +1220,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>9</v>
@@ -1209,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>13</v>
@@ -1217,10 +1237,10 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>2021115369</v>
+        <v>2021115000</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>10</v>
@@ -1229,7 +1249,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>9</v>
@@ -1238,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>13</v>
@@ -1249,7 +1269,7 @@
         <v>2021115487</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>10</v>
@@ -1258,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>9</v>
@@ -1267,7 +1287,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>13</v>
@@ -1278,7 +1298,7 @@
         <v>2021115423</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>11</v>
@@ -1287,7 +1307,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>9</v>
@@ -1296,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>13</v>
@@ -1307,7 +1327,7 @@
         <v>2021115066</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>11</v>
@@ -1316,7 +1336,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>9</v>
@@ -1325,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>13</v>
@@ -1336,7 +1356,7 @@
         <v>2021115052</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>10</v>
@@ -1345,7 +1365,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>9</v>
@@ -1354,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>13</v>
@@ -1365,7 +1385,7 @@
         <v>2021115290</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>10</v>
@@ -1374,7 +1394,7 @@
         <v>31</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>9</v>
@@ -1383,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>13</v>
@@ -1391,10 +1411,10 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>2021115290</v>
+        <v>2021115039</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>10</v>
@@ -1403,7 +1423,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>9</v>
@@ -1412,7 +1432,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>13</v>
@@ -1420,19 +1440,19 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>2021115039</v>
+        <v>2021117496</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>9</v>
@@ -1441,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>13</v>
@@ -1449,19 +1469,19 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>2021117496</v>
+        <v>2021118093</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>9</v>
@@ -1470,7 +1490,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>13</v>
@@ -1478,10 +1498,10 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>2021118093</v>
+        <v>2021115435</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>10</v>
@@ -1490,7 +1510,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>9</v>
@@ -1499,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>13</v>
@@ -1507,10 +1527,10 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>2021115435</v>
+        <v>2021115513</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>10</v>
@@ -1519,7 +1539,7 @@
         <v>36</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>9</v>
@@ -1528,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>13</v>
@@ -1536,10 +1556,10 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>2021115513</v>
+        <v>2021115309</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>10</v>
@@ -1548,7 +1568,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>9</v>
@@ -1557,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>13</v>
@@ -1565,10 +1585,10 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>2021115309</v>
+        <v>2021115335</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>10</v>
@@ -1577,7 +1597,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>9</v>
@@ -1586,7 +1606,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>13</v>
@@ -1594,10 +1614,10 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>2021115335</v>
+        <v>2021115192</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>10</v>
@@ -1606,7 +1626,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>9</v>
@@ -1615,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>13</v>
@@ -1623,10 +1643,10 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>2021115192</v>
+        <v>2021116821</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>10</v>
@@ -1635,7 +1655,7 @@
         <v>40</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>9</v>
@@ -1644,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>13</v>
@@ -1652,10 +1672,10 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>2021116821</v>
+        <v>2021114974</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>10</v>
@@ -1664,7 +1684,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>9</v>
@@ -1673,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>13</v>
@@ -1681,19 +1701,19 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>2021114974</v>
+        <v>2021115436</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>9</v>
@@ -1702,7 +1722,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>13</v>
@@ -1710,19 +1730,19 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>2021115436</v>
+        <v>2021114973</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>9</v>
@@ -1731,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>13</v>
@@ -1739,10 +1759,10 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>2021114973</v>
+        <v>2021115226</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>10</v>
@@ -1751,7 +1771,7 @@
         <v>44</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>9</v>
@@ -1760,7 +1780,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>13</v>
@@ -1768,19 +1788,19 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>2021115226</v>
+        <v>2021117155</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>9</v>
@@ -1789,89 +1809,62 @@
         <v>12</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>2021117155</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
-      <c r="I35" s="1"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+      <c r="I34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A35:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  <conditionalFormatting sqref="A34:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D1048576 D1">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  <conditionalFormatting sqref="D34:D1048576 D1">
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="mailto:khian.santos.s@bulsu.edu.ph" xr:uid="{64256E6E-EF3D-47C9-9D60-42FA1F9AFB72}"/>
-    <hyperlink ref="D3" r:id="rId2" display="mailto:joshua13julao@gmail.com" xr:uid="{1521577E-7B2E-40CC-9C17-1AF466607D36}"/>
-    <hyperlink ref="D4" r:id="rId3" display="mailto:jennyrose.yumol.r@bulsu.edu.ph" xr:uid="{A0F20B64-7DE7-427F-AB68-F757FAEF24F6}"/>
-    <hyperlink ref="D5" r:id="rId4" display="mailto:trisha.cardona.r@bulsu.edu.ph" xr:uid="{190FBEFF-1EBC-4D2B-BFA0-BB9BCFD221E5}"/>
-    <hyperlink ref="D6" r:id="rId5" display="mailto:jerome.camacho.e@bulsu.edu.ph" xr:uid="{494C70DC-145B-415F-B53E-143837F5F0A6}"/>
-    <hyperlink ref="D7" r:id="rId6" display="mailto:miguel.apostol.c@bulsu.edu.ph" xr:uid="{B7E18BDF-64F4-4C2E-B2A4-AC597CFB1A80}"/>
-    <hyperlink ref="D8" r:id="rId7" display="mailto:princesserika.lorenzo.b@bulsu.edu.ph" xr:uid="{DA886E84-F27F-4699-9DAD-F0A3DE4117EC}"/>
-    <hyperlink ref="D9" r:id="rId8" display="mailto:chelsie.salvador.j@bulsu.edu.ph" xr:uid="{0BB4527A-BD3A-421A-BC00-8B9F631AAB75}"/>
-    <hyperlink ref="D10" r:id="rId9" display="mailto:raymundian.encanto.s@bulsu.edu.ph" xr:uid="{0CFD4EA7-AAB7-4914-9265-10D48F9A2BB8}"/>
-    <hyperlink ref="D11" r:id="rId10" display="mailto:markadrian.galang.p@bulsu.edu.ph" xr:uid="{CBCFF11D-32A9-4BF5-9BB5-327FCF7D8C02}"/>
-    <hyperlink ref="D12" r:id="rId11" display="mailto:jamescharl.ramirez.m@bulsu.edu.ph" xr:uid="{34533307-23C1-4932-B74B-E4333AC1000D}"/>
-    <hyperlink ref="D13" r:id="rId12" display="mailto:Judyann.gercan.d@bulsu.edu.ph" xr:uid="{0D598276-9EE0-43A8-9B65-1B157DA982A5}"/>
-    <hyperlink ref="D14" r:id="rId13" display="mailto:michaelluis.sarmiento.o@bulsu.edu.ph" xr:uid="{6E2829B8-B004-44C4-A505-0C37FCAC54FA}"/>
-    <hyperlink ref="D15" r:id="rId14" display="mailto:gabriel.manalo.l@bulsu.edu.ph" xr:uid="{01A31D3E-5B33-4ECC-AC7F-90BE82ECBC96}"/>
-    <hyperlink ref="D16" r:id="rId15" display="mailto:jeanrei.regalado.m@bulsu.edu.ph" xr:uid="{27992E05-25A2-4E23-8B54-D0765F48D376}"/>
-    <hyperlink ref="D17" r:id="rId16" display="mailto:mariellerika.go.a@bulsu.edu.ph" xr:uid="{2A383F8D-28CB-4ABF-AF04-53C1768F9751}"/>
-    <hyperlink ref="D18" r:id="rId17" display="mailto:gio.manalo.m@bulsu.edu.ph" xr:uid="{3CE08E9F-BF74-4FA5-9ED3-C3C8BDB8A83D}"/>
-    <hyperlink ref="D19" r:id="rId18" display="mailto:jasper.lopez.c@bulsu.edu.ph" xr:uid="{184687FC-E221-4141-8DF8-478FC87900BA}"/>
-    <hyperlink ref="D20" r:id="rId19" display="mailto:joven.vichozo.x@bulsu.edu.ph" xr:uid="{D2C92B8E-A014-47D6-BEB4-AFF934A2BBC4}"/>
-    <hyperlink ref="D21" r:id="rId20" display="mailto:rilly.lovedorial.d@bulsu.edu.ph" xr:uid="{73D34E18-3A07-4D46-9C74-09501D786BC2}"/>
-    <hyperlink ref="D22" r:id="rId21" display="mailto:shairanicole.fruto.s@bulsu.edu.ph" xr:uid="{BA519B04-0FED-42BA-BA48-C0B948DABD4C}"/>
-    <hyperlink ref="D23" r:id="rId22" display="mailto:herman.limjr.c@bulsu.edu.ph" xr:uid="{362D4804-8837-49B3-BFE6-1B233500F1B4}"/>
-    <hyperlink ref="D24" r:id="rId23" display="mailto:dukeephraimzaki.talento.s@bulsu.edu.ph" xr:uid="{C2171EE1-0AF7-4D52-ACF5-1E5DBEE2F1E6}"/>
-    <hyperlink ref="D25" r:id="rId24" display="mailto:johnlee.mazo.f@bulsu.edu.ph" xr:uid="{67E5CE3A-209B-483D-8A2E-7977F6C452B8}"/>
-    <hyperlink ref="D26" r:id="rId25" display="mailto:jhonpaul.felizarta.dc@bulsu.edu.ph" xr:uid="{F3796174-2853-4902-A7C6-E6048CE87D5B}"/>
-    <hyperlink ref="D27" r:id="rId26" display="mailto:edison.espino.d@bulsu.edu.ph" xr:uid="{E838D919-5F7C-4034-8BA6-64AC89961E38}"/>
-    <hyperlink ref="D28" r:id="rId27" display="mailto:christianaloise.lagasca.r@bulsu.edu.ph" xr:uid="{5F4C5B06-1857-420E-B9A5-6A87DB359C36}"/>
-    <hyperlink ref="D29" r:id="rId28" display="mailto:yuji.mendoza.c@bulsu.edu.ph" xr:uid="{86435195-3E64-4038-B998-3C5E2A1B8624}"/>
-    <hyperlink ref="D30" r:id="rId29" display="mailto:markgenesis.suba.v@bulsu.edu.ph" xr:uid="{E04EFF63-1566-4EBD-963A-B113FE8E4822}"/>
-    <hyperlink ref="D31" r:id="rId30" display="mailto:kathlene.trabajales.dc@bulsu.edu.ph" xr:uid="{6C4ECBBA-AA5E-4C27-9946-70F06F2EDBC5}"/>
-    <hyperlink ref="D32" r:id="rId31" display="mailto:wallyjhon.javaluyas.dc@bulsu.edu.ph" xr:uid="{A58A9E30-B51D-42F4-B42D-CF27A25B97B5}"/>
-    <hyperlink ref="D33" r:id="rId32" display="mailto:haroldjames.clemente.c@bulsu.edu.ph" xr:uid="{2E0323AB-295E-4D42-8ACC-5B6B6FD8824B}"/>
-    <hyperlink ref="D34" r:id="rId33" display="mailto:aileen.pangilinan.r@bulsu.edu.ph" xr:uid="{F200553A-0DAE-4132-B1BE-A4A9452A9D9D}"/>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:khian.santos.s@bulsu.edu.ph"/>
+    <hyperlink ref="D3" r:id="rId2" display="mailto:joshua13julao@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="mailto:jennyrose.yumol.r@bulsu.edu.ph"/>
+    <hyperlink ref="D5" r:id="rId4" display="mailto:trisha.cardona.r@bulsu.edu.ph"/>
+    <hyperlink ref="D6" r:id="rId5" display="mailto:jerome.camacho.e@bulsu.edu.ph"/>
+    <hyperlink ref="D7" r:id="rId6" display="mailto:miguel.apostol.c@bulsu.edu.ph"/>
+    <hyperlink ref="D8" r:id="rId7" display="mailto:princesserika.lorenzo.b@bulsu.edu.ph"/>
+    <hyperlink ref="D9" r:id="rId8" display="mailto:chelsie.salvador.j@bulsu.edu.ph"/>
+    <hyperlink ref="D10" r:id="rId9" display="mailto:raymundian.encanto.s@bulsu.edu.ph"/>
+    <hyperlink ref="D11" r:id="rId10" display="mailto:markadrian.galang.p@bulsu.edu.ph"/>
+    <hyperlink ref="D12" r:id="rId11" display="mailto:jamescharl.ramirez.m@bulsu.edu.ph"/>
+    <hyperlink ref="D13" r:id="rId12" display="mailto:Judyann.gercan.d@bulsu.edu.ph"/>
+    <hyperlink ref="D14" r:id="rId13" display="mailto:michaelluis.sarmiento.o@bulsu.edu.ph"/>
+    <hyperlink ref="D15" r:id="rId14" display="mailto:gabriel.manalo.l@bulsu.edu.ph"/>
+    <hyperlink ref="D16" r:id="rId15" display="mailto:jeanrei.regalado.m@bulsu.edu.ph"/>
+    <hyperlink ref="D17" r:id="rId16" display="mailto:mariellerika.go.a@bulsu.edu.ph"/>
+    <hyperlink ref="D18" r:id="rId17" display="mailto:gio.manalo.m@bulsu.edu.ph"/>
+    <hyperlink ref="D19" r:id="rId18" display="mailto:jasper.lopez.c@bulsu.edu.ph"/>
+    <hyperlink ref="D20" r:id="rId19" display="mailto:rilly.lovedorial.d@bulsu.edu.ph"/>
+    <hyperlink ref="D21" r:id="rId20" display="mailto:shairanicole.fruto.s@bulsu.edu.ph"/>
+    <hyperlink ref="D22" r:id="rId21" display="mailto:herman.limjr.c@bulsu.edu.ph"/>
+    <hyperlink ref="D23" r:id="rId22" display="mailto:dukeephraimzaki.talento.s@bulsu.edu.ph"/>
+    <hyperlink ref="D24" r:id="rId23" display="mailto:johnlee.mazo.f@bulsu.edu.ph"/>
+    <hyperlink ref="D25" r:id="rId24" display="mailto:jhonpaul.felizarta.dc@bulsu.edu.ph"/>
+    <hyperlink ref="D26" r:id="rId25" display="mailto:edison.espino.d@bulsu.edu.ph"/>
+    <hyperlink ref="D27" r:id="rId26" display="mailto:christianaloise.lagasca.r@bulsu.edu.ph"/>
+    <hyperlink ref="D28" r:id="rId27" display="mailto:yuji.mendoza.c@bulsu.edu.ph"/>
+    <hyperlink ref="D29" r:id="rId28" display="mailto:markgenesis.suba.v@bulsu.edu.ph"/>
+    <hyperlink ref="D30" r:id="rId29" display="mailto:kathlene.trabajales.dc@bulsu.edu.ph"/>
+    <hyperlink ref="D31" r:id="rId30" display="mailto:wallyjhon.javaluyas.dc@bulsu.edu.ph"/>
+    <hyperlink ref="D32" r:id="rId31" display="mailto:haroldjames.clemente.c@bulsu.edu.ph"/>
+    <hyperlink ref="D33" r:id="rId32" display="mailto:aileen.pangilinan.r@bulsu.edu.ph"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>